--- a/data/dataset description.xlsx
+++ b/data/dataset description.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flight-delay-analysis-py\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flights-analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="6648" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset description" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>Column Name</t>
   </si>
@@ -942,13 +943,254 @@
   <si>
     <t>Y-Axis Range:
 Shared, Individual</t>
+  </si>
+  <si>
+    <t>CIVIL AVIATION U.S CONTEXT 2019-2023</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT 2019-2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flights nbrs: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+8,62 % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>é</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cancelled: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-8,62 % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ê</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diverted: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-7,62 % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ê</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delays: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+8,62 % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>é</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,74M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Flights</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Airlines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Airports</t>
+    </r>
+  </si>
+  <si>
+    <t>WEEKLY DISTRIBUTION
+Number of flights</t>
+  </si>
+  <si>
+    <t>MONTHLY DEPARTURES</t>
+  </si>
+  <si>
+    <t>AIRLINE RANKINGS
+by flight numbers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On-time: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-7,62 % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ê</t>
+    </r>
+  </si>
+  <si>
+    <t>NATIONAL COVERAGE
+desity map - cumulative number of flights</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13,48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Average Departure Delay</t>
+    </r>
+  </si>
+  <si>
+    <t>Flight Distance Distribution
+BAR CHART</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,8 +1225,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,8 +1279,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1064,11 +1382,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1121,6 +1519,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,14 +1534,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,10 +1967,10 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,10 +2321,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -1811,36 +2332,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1848,36 +2369,36 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1885,29 +2406,29 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1915,31 +2436,31 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1947,64 +2468,64 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2012,31 +2533,31 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -2044,22 +2565,22 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -2067,22 +2588,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2090,17 +2611,17 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2108,22 +2629,22 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2131,29 +2652,29 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -2161,15 +2682,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -2177,20 +2698,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="6" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B48"/>
     <mergeCell ref="A1:A18"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
@@ -2202,6 +2717,12 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2212,7 +2733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2387,4 +2908,313 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="12.77734375" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="I1:O4"/>
+    <mergeCell ref="I5:O8"/>
+    <mergeCell ref="E9:O14"/>
+    <mergeCell ref="E2:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/dataset description.xlsx
+++ b/data/dataset description.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="6648" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="6648" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset description" sheetId="1" r:id="rId1"/>
@@ -1101,6 +1101,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,6 +1121,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,73 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,109 +1194,115 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1648,7 +1648,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1740,7 +1740,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1787,7 +1787,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1881,7 +1881,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1967,274 +1967,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="34" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="33" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="29" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2265,7 +2265,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -2280,154 +2280,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="41">
+      <c r="B2" s="42"/>
+      <c r="C2" s="39">
         <v>1.2</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41">
+      <c r="D2" s="40"/>
+      <c r="E2" s="39">
         <v>1.2</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41">
+      <c r="F2" s="40"/>
+      <c r="G2" s="39">
         <v>1.2</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2456,7 +2456,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2469,50 +2469,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="39">
+      <c r="B2" s="42"/>
+      <c r="C2" s="63">
         <v>1.2</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41">
+      <c r="D2" s="64"/>
+      <c r="E2" s="39">
         <v>1.2</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41">
+      <c r="F2" s="40"/>
+      <c r="G2" s="39">
         <v>1.2</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="65" t="s">
         <v>104</v>
       </c>
@@ -2521,111 +2521,115 @@
       <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="68"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="68"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
       <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="68"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
       <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="68"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="68"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="68"/>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
       <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="71"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="B3:D6"/>
     <mergeCell ref="B7:D10"/>
     <mergeCell ref="B11:H12"/>
@@ -2636,10 +2640,6 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E3:H10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2665,84 +2665,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="68" t="s">
         <v>112</v>
       </c>
@@ -2751,70 +2751,63 @@
       <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="68"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="68"/>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
       <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="71"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="E3:H6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -2823,6 +2816,13 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="E3:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2834,7 +2834,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2848,50 +2848,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="39">
+      <c r="B2" s="42"/>
+      <c r="C2" s="63">
         <v>1.2</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41">
+      <c r="D2" s="64"/>
+      <c r="E2" s="39">
         <v>1.2</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41">
+      <c r="F2" s="40"/>
+      <c r="G2" s="39">
         <v>1.2</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="65" t="s">
         <v>122</v>
       </c>
@@ -2900,114 +2900,109 @@
       <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="68"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="68"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
       <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="68"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
       <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="68"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="68"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="68"/>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
       <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="71"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="E3:H10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:D10"/>
     <mergeCell ref="B11:H12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A1:B1"/>
@@ -3018,6 +3013,11 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="E3:H10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/dataset description.xlsx
+++ b/data/dataset description.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="6648" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="6648" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset description" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
   <si>
     <t>Column Name</t>
   </si>
@@ -670,12 +670,6 @@
     </r>
   </si>
   <si>
-    <t>2. Scatter: Dep vs Arr delay</t>
-  </si>
-  <si>
-    <t>3. Scatter: Taxi-out vs Dep delay</t>
-  </si>
-  <si>
     <t>This airline performs above/below the peer average in terms of arrival delays.
 The airline shows higher/lower-than-average arrival delays under the current filters.</t>
   </si>
@@ -732,6 +726,12 @@
   <si>
     <t>Cause share (%):
 Weather Carrier NAS Security</t>
+  </si>
+  <si>
+    <t>2. Marginal Effect of Delay Components on Arrival Delay</t>
+  </si>
+  <si>
+    <t>3. Reliability vs Performance of Delay Factors</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1221,6 +1221,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,9 +1296,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,6 +1303,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2265,7 +2268,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -2469,14 +2472,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="39" t="s">
         <v>106</v>
       </c>
@@ -2491,10 +2494,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="63">
+      <c r="C2" s="64">
         <v>1.2</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="39">
         <v>1.2</v>
       </c>
@@ -2508,101 +2511,101 @@
       <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="65" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="60" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="27"/>
@@ -2616,22 +2619,16 @@
       <c r="A12" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="B7:D10"/>
     <mergeCell ref="B11:H12"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -2640,6 +2637,12 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E3:H10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="B7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2651,8 +2654,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2665,12 +2668,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="39"/>
       <c r="F1" s="40"/>
       <c r="G1" s="39"/>
@@ -2681,8 +2684,8 @@
         <v>98</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="39"/>
       <c r="F2" s="40"/>
       <c r="G2" s="39"/>
@@ -2692,13 +2695,13 @@
       <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="75" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -2708,9 +2711,9 @@
       <c r="A4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="75"/>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
@@ -2718,9 +2721,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -2728,9 +2731,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="75"/>
       <c r="F6" s="75"/>
       <c r="G6" s="75"/>
@@ -2740,52 +2743,54 @@
       <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
       <c r="B11" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -2797,7 +2802,7 @@
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -2808,6 +2813,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="E3:H6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -2816,13 +2828,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="E3:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2848,32 +2853,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" s="40"/>
       <c r="G1" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="63">
+      <c r="C2" s="64">
         <v>1.2</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="39">
         <v>1.2</v>
       </c>
@@ -2887,102 +2892,102 @@
       <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="B7" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
+        <v>113</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>123</v>
+      <c r="B11" s="60" t="s">
+        <v>121</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2993,13 +2998,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="77"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="15">
